--- a/Data/Processing/2024-02-02/BOSCHLTD.xlsx
+++ b/Data/Processing/2024-02-02/BOSCHLTD.xlsx
@@ -863,10 +863,10 @@
         <v>44967</v>
       </c>
       <c r="B7">
-        <v>17076.7</v>
+        <v>17076.71</v>
       </c>
       <c r="C7">
-        <v>17118.32</v>
+        <v>17118.33</v>
       </c>
       <c r="D7">
         <v>16959.74</v>
@@ -893,7 +893,7 @@
         <v>-0.6899999999999999</v>
       </c>
       <c r="L7">
-        <v>-4.68</v>
+        <v>-4.67</v>
       </c>
       <c r="M7">
         <v>0.57</v>
@@ -963,7 +963,7 @@
         <v>44971</v>
       </c>
       <c r="B9">
-        <v>16977.38</v>
+        <v>16977.39</v>
       </c>
       <c r="C9">
         <v>17219.99</v>
@@ -993,7 +993,7 @@
         <v>-2.62</v>
       </c>
       <c r="L9">
-        <v>9.74</v>
+        <v>9.75</v>
       </c>
       <c r="M9">
         <v>2.59</v>
@@ -1116,7 +1116,7 @@
         <v>17642.03</v>
       </c>
       <c r="C12">
-        <v>17757.39</v>
+        <v>17757.38</v>
       </c>
       <c r="D12">
         <v>17401.23</v>
